--- a/Monografia_2025/Documentos/EstadodelArte/Resumen estado ar.xlsx
+++ b/Monografia_2025/Documentos/EstadodelArte/Resumen estado ar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Postobon\Cursos\Especializacion\Semestre II\Monografia\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Postobon\Cursos\Especializacion\FundamentosProgramacion\Repos\Datos\Datos_Analitica\Monografia_2025\Documentos\EstadodelArte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B2E9562-699C-4B2D-8089-2889C4207E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D63F0B-3014-4B5D-86AB-71779910A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2071FFA2-F4F7-4B54-BBF7-738733B44E17}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Heliyon, Open Access PDF CoLab+2PubMed+2</t>
   </si>
   <si>
-    <t>Estudio basado en datos de una carretera (expressway) en la provincia de Shaanxi, China. Se utilizan seis modos de datos (estructurados y texto) y un modelo híbrido de deep learning que combina BiGRU y CNN, etc. Se evalúa el impacto de incorporar texto (reportes) junto con los datos estructurados. Se observan mejorías en rendimiento cuando se usan características derivadas del texto. Métricas incluyen F1-score (sobre clasificación) y medidas de error para duración. Muy relevante para escenarios con datos mixtos. PubMed+1</t>
-  </si>
-  <si>
     <r>
       <t>Predicting the duration of traffic incidents for Sydney greater metropolitan area using machine learning methods</t>
     </r>
@@ -110,9 +107,6 @@
     <t>ArXiv preprint PDF web3.arxiv.org+2ResearchGate+2</t>
   </si>
   <si>
-    <t>Trabajo que aborda una región metropolitana grande (Sydney). Incluye características de red vial, indicadores socioeconómicos, variables de tráfico, tipo/incidente. Se prueban varios modelos: Random Forest, XGBoost, LightGBM, etc. Para regresión (duración), para clasificación (incidentes cortos vs largos) usando un umbral temporal (ej., 30 min). Reportes del RMSE y del F1 como métricas principales. Ofrece análisis de importancia de variables e interpretación. web3.arxiv.org</t>
-  </si>
-  <si>
     <r>
       <t>Prediction of Duration of Traffic Incidents by Hybrid Deep Learning Based on Multi-Source Incomplete Data</t>
     </r>
@@ -131,9 +125,6 @@
     <t>IJERPH, Open Access PDF MDPI</t>
   </si>
   <si>
-    <t>Modelo híbrido que integra datos incompletos multi-fuente: sensores + descripción en texto analizada con LDA + redes neuronales tipo Bi-LSTM/LSTM. Estudia desempeño especialmente en incidentes cuya duración está entre ciertos rangos (20-70 min). Se destacan estrategias de imputación/tratamiento de datos faltantes y modelos que actualizan sus predicciones conforme se disponen más datos. Métricas usadas: MAE, RMSE, se compara con benchmarks. Útil para tu caso si hay datos faltantes o valores no reportados en algunos incidentes. MDPI</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/38380007/</t>
   </si>
   <si>
@@ -150,6 +141,15 @@
   </si>
   <si>
     <t>https://colab.ws/articles/10.1016%2Fj.heliyon.2024.e25957?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>Modelo híbrido que integra datos incompletos multi-fuente: sensores + descripción en texto analizada con LDA + redes neuronales tipo Bi-LSTM/LSTM. Estudia desempeño especialmente en incidentes cuya duración está entre ciertos rangos (20-70 min). Se destacan estrategias de imputación/tratamiento de datos faltantes y modelos que actualizan sus predicciones conforme se disponen más datos. Métricas usadas: MAE, RMSE, se compara con benchmarks. Útil para tu caso si hay datos faltantes o valores no reportados en algunos incidentes. MDPI MAE = 17.04, RMSE = 22.01</t>
+  </si>
+  <si>
+    <t>Estudio basado en datos de una carretera (expressway) en la provincia de Shaanxi, China. Se utilizan seis modos de datos (estructurados y texto) y un modelo híbrido de deep learning que combina BiGRU y CNN, etc. Se evalúa el impacto de incorporar texto (reportes) junto con los datos estructurados. Se observan mejorías en rendimiento cuando se usan características derivadas del texto. Métricas incluyen F1-score (sobre clasificación) y medidas de error para duración. Muy relevante para escenarios con datos mixtos. PubMed+1 RMSE = 47.77</t>
+  </si>
+  <si>
+    <t>Trabajo que aborda una región metropolitana grande (Sydney). Incluye características de red vial, indicadores socioeconómicos, variables de tráfico, tipo/incidente. Se prueban varios modelos: Random Forest, XGBoost, LightGBM, etc. Para regresión (duración), para clasificación (incidentes cortos vs largos) usando un umbral temporal (ej., 30 min). Reportes del RMSE y del F1 como métricas principales. Ofrece análisis de importancia de variables e interpretación. web3.arxiv.org RMSE = 33.7</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,10 +581,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -595,41 +595,41 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
